--- a/Plotting/result_data_long_Scope1-3.xlsx
+++ b/Plotting/result_data_long_Scope1-3.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,20 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +510,36 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -505,17 +549,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-3\20250813023037_2030_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-3\20250902201500_2030_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-3\20250813031235_2040_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-3\20250902211744_2040_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-3\20250813063717_2050_minC_DD10-1\optimization_results.h5</t>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Standalone\Scope1-3\20250903074736_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-3\Results_model_linking_20250905_09_38\Iteration_1\20250905134015_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-3\Results_model_linking_20250905_09_38\Iteration_1\20250905144159_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-3\Results_model_linking_20250905_09_38\Iteration_1\20250905232015_2050_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-3\Results_model_linking_20250905_09_38\Iteration_2\20250906030625_2030_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-3\Results_model_linking_20250905_09_38\Iteration_2\20250906040250_2040_minC_DD10-1\optimization_results.h5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Z:\AdOpt_NET0\AdOpt_results\Model_Linking\Full\Scope1-3\Results_model_linking_20250905_09_38\Iteration_2\20250906104935_2050_minC_DD10-1\optimization_results.h5</t>
         </is>
       </c>
     </row>
@@ -526,13 +600,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3442777872.171491</v>
+        <v>3443025215.902517</v>
       </c>
       <c r="C5" t="n">
-        <v>2478794020.019609</v>
+        <v>2514960059.269219</v>
       </c>
       <c r="D5" t="n">
-        <v>1482693719.14377</v>
+        <v>1588224754.870359</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3792767335.094356</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2542070204.02573</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2067421889.974788</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3801602146.29517</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2538046273.867115</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2069010705.972322</v>
       </c>
     </row>
     <row r="6">
@@ -543,10 +635,24 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>11306635.55193647</v>
+        <v>11293279.37773367</v>
       </c>
       <c r="D6" t="n">
-        <v>355126749.3791298</v>
+        <v>379226525.3032091</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>410926708.5949293</v>
+      </c>
+      <c r="G6" t="n">
+        <v>577708513.5500331</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>411517740.8323417</v>
+      </c>
+      <c r="J6" t="n">
+        <v>578561039.8559222</v>
       </c>
     </row>
     <row r="7">
@@ -556,13 +662,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3442777872.171491</v>
+        <v>3443025215.902517</v>
       </c>
       <c r="C7" t="n">
-        <v>2490100655.571546</v>
+        <v>2526253338.646953</v>
       </c>
       <c r="D7" t="n">
-        <v>1837820468.5229</v>
+        <v>1967451280.173568</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3792767335.094356</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2952996912.620659</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2645130403.524821</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3801602146.29517</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2949564014.699457</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2647571745.828244</v>
       </c>
     </row>
     <row r="8">
@@ -574,7 +698,17 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>77593923607.14</v>
+        <v>79254365553.45306</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>89799679426.44908</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>89872201659.90529</v>
       </c>
     </row>
     <row r="9">
@@ -584,199 +718,445 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1379663.29459112</v>
+        <v>1382040.883506057</v>
       </c>
       <c r="C9" t="n">
-        <v>689831.6472955476</v>
+        <v>691020.4417530484</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6299984.707260767</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3149992.353630414</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1.271255314350128e-06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6304544.707618851</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3152272.35380942</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.576278686523438e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>size_AEC</t>
+          <t>CAPEX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11293279.37773367</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>367933245.9254755</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>109669566.8429292</v>
+      </c>
+      <c r="E10" t="n">
+        <v>410926708.5949293</v>
+      </c>
+      <c r="F10" t="n">
+        <v>166781804.9551038</v>
+      </c>
+      <c r="G10" t="n">
+        <v>108917118.8722222</v>
+      </c>
+      <c r="H10" t="n">
+        <v>411517740.8323417</v>
+      </c>
+      <c r="I10" t="n">
+        <v>167043299.0235806</v>
+      </c>
+      <c r="J10" t="n">
+        <v>110571283.3077637</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>size_ASU</t>
+          <t>OPEX_fix</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>148008831.6622975</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1742337839532803</v>
+        <v>223532371.9716638</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02858589708754098</v>
+        <v>234380321.476349</v>
+      </c>
+      <c r="E11" t="n">
+        <v>283007335.4437639</v>
+      </c>
+      <c r="F11" t="n">
+        <v>248424525.6158753</v>
+      </c>
+      <c r="G11" t="n">
+        <v>272364811.0343158</v>
+      </c>
+      <c r="H11" t="n">
+        <v>283200860.8739171</v>
+      </c>
+      <c r="I11" t="n">
+        <v>248613151.4285068</v>
+      </c>
+      <c r="J11" t="n">
+        <v>273011622.1497286</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>size_Biomass2methanol</t>
+          <t>OPEX_var</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3073514686.481214</v>
       </c>
       <c r="C12" t="n">
-        <v>466.3656582469201</v>
+        <v>1818390232.181443</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1244174866.551081</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2140605617.081296</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1647750036.467566</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1686139960.068449</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2147962294.560109</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1642929198.400615</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1685427800.514784</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>size_Biomass2methanol_CC</t>
+          <t>OPEX_emis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>210208418.3812716</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>105104209.190637</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>6.984919309616089e-10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>958227673.974367</v>
+      </c>
+      <c r="F13" t="n">
+        <v>479113836.9871848</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.0001987814903259277</v>
+      </c>
+      <c r="H13" t="n">
+        <v>958921250.0288024</v>
+      </c>
+      <c r="I13" t="n">
+        <v>479460625.0144131</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.518032073974609e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_El</t>
+          <t>size_AEC</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>299.9947812534424</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.338160549080429</v>
       </c>
       <c r="D14" t="n">
-        <v>52.13527979252938</v>
+        <v>1315.844783710568</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_Industrial_NG</t>
+          <t>size_ASU</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>322.8204711314243</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>29.10775295574632</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31.07570449028047</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>29.96706859483574</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>size_CO2_mixer</t>
+          <t>size_Biomass2methanol</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64.4004</v>
+        <v>553.0795362339358</v>
       </c>
       <c r="D16" t="n">
-        <v>80.83735449870051</v>
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>341.9117647058839</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>308.6521324044054</v>
+      </c>
+      <c r="H16" t="n">
+        <v>341.911764705882</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>309.5408777861256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>size_CO2toEmission</t>
+          <t>size_Biomass2methanol_CC</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.8721857311458706</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace</t>
+          <t>size_Boiler_El</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+        <v>299.9588795916105</v>
+      </c>
+      <c r="C18" t="n">
+        <v>43.46103148568357</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>563.3634687205019</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>563.9610728014717</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_CC</t>
+          <t>size_Boiler_Industrial_NG</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+        <v>322.7818378213971</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>447.7629652852092</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>448.1488096592267</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_Electric</t>
+          <t>size_CO2_mixer</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>156.7980485223208</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>266.3614700211012</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.33677916371849</v>
+      </c>
+      <c r="G20" t="n">
+        <v>94.09808566704852</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>90.55478184226945</v>
+      </c>
+      <c r="J20" t="n">
+        <v>94.13204230421472</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_existing</t>
+          <t>size_CO2toEmission</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>size_CrackerFurnace_existing_CC</t>
+          <t>size_CrackerFurnace</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -784,27 +1164,43 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>size_EDH</t>
+          <t>size_CrackerFurnace_CC</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>331.420972315885</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>size_ElectricSMR_m</t>
+          <t>size_CrackerFurnace_Electric</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -814,61 +1210,109 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>size_HBfeed_mixer</t>
+          <t>size_CrackerFurnace_existing</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>5.013921840915996</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8226157237992575</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>size_HaberBosch</t>
+          <t>size_CrackerFurnace_existing_CC</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>size_HaberBosch_existing</t>
+          <t>size_EDH</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1248</v>
+        <v>331.3074175388309</v>
       </c>
       <c r="C27" t="n">
-        <v>1248</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1247.999999114151</v>
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>size_MPW2methanol</t>
+          <t>size_ElectricSMR_m</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -878,13 +1322,31 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3407.405902240549</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3412.936997189905</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>size_MPW2methanol_CC</t>
+          <t>size_HBfeed_mixer</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -894,117 +1356,257 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>837.6331785823442</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>894.2648774181429</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>862.3616861823233</v>
+      </c>
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>size_MTO</t>
+          <t>size_HaberBosch</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>150.1697419555155</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>size_MeOHsynthesis</t>
+          <t>size_HaberBosch_existing</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1248</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1248</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1248</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>size_OlefinSeparation</t>
+          <t>size_MPW2methanol</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>size_OlefinSeparation_existing</t>
+          <t>size_MPW2methanol_CC</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>size_PDH</t>
+          <t>size_MTO</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>178.8414853362528</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>634.4987639959961</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>635.3500050398176</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>size_PE_mixer</t>
+          <t>size_MeOHsynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.1461187214612</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>5.997656940671748</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>4.029166865692354</v>
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>637.1849037189876</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>94.04288158858695</v>
+      </c>
+      <c r="H35" t="n">
+        <v>638.2192184745122</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>93.92900370793613</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>size_RWGS</t>
+          <t>size_OlefinSeparation</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer</t>
+          <t>size_OlefinSeparation_existing</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1012,103 +1614,197 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer_CC</t>
+          <t>size_PDH</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer_existing</t>
+          <t>size_PE_mixer</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1068</v>
+        <v>122.1461187214612</v>
       </c>
       <c r="C39" t="n">
-        <v>1068</v>
+        <v>4.964538394499196</v>
       </c>
       <c r="D39" t="n">
-        <v>1068</v>
+        <v>0.9104843470844927</v>
+      </c>
+      <c r="E39" t="n">
+        <v>123.8804683087842</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.085608016851402</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>123.9024346221356</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.139977708818485</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>size_SteamReformer_existing_CC</t>
+          <t>size_RWGS</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8802700560388848</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8999999999999609</v>
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_Battery</t>
+          <t>size_SteamReformer</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_CO2</t>
+          <t>size_SteamReformer_CC</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
-      <c r="C42" t="n">
-        <v>5300.016773852787</v>
-      </c>
-      <c r="D42" t="n">
-        <v>23202.78250103755</v>
-      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_H2</t>
+          <t>size_SteamReformer_existing</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="C43" t="n">
-        <v>3.063392136816242e-10</v>
+        <v>1068</v>
       </c>
       <c r="D43" t="n">
-        <v>4.591523747876636e-07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1068</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>1068</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>size_WGS_m</t>
+          <t>size_SteamReformer_existing_CC</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1120,59 +1816,127 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>size_feedgas_mixer</t>
+          <t>size_Storage_Battery</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1380.011959082729</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>63.12236862348283</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>64.43734791714601</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>size_naphtha_mixer</t>
+          <t>size_Storage_CO2</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>15.63745999133647</v>
       </c>
       <c r="D46" t="n">
+        <v>29674.51371381121</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>size_syngas_mixer</t>
+          <t>size_Storage_H2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>-1.297637200885263e-11</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>82.91189010630154</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.695318241823908e-10</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.105531201642726e-07</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>CO2/import_max</t>
+          <t>size_WGS_m</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1182,29 +1946,65 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>179.3755492104561</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.7019532904162008</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>172.948306977077</v>
+      </c>
+      <c r="J48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>CO2/export_max</t>
+          <t>size_feedgas_mixer</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>69.80748914454803</v>
+        <v>1379.973325772722</v>
       </c>
       <c r="C49" t="n">
-        <v>239.8366190431917</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>219.5675276933789</v>
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4912.360355477428</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4918.277294800439</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>CO2_DAC/import_max</t>
+          <t>size_naphtha_mixer</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1214,13 +2014,31 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>CO2_DAC/export_max</t>
+          <t>size_syngas_mixer</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1230,13 +2048,31 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>637.1849037189922</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>638.2192184745122</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>CO2captured/import_max</t>
+          <t>CO2/import_max</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1246,29 +2082,65 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>CO2captured/export_max</t>
+          <t>CO2/export_max</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>69.80748914464908</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>214.2356823779513</v>
+      </c>
+      <c r="E53" t="n">
+        <v>162.8074891447258</v>
+      </c>
+      <c r="F53" t="n">
+        <v>207.6162209204372</v>
+      </c>
+      <c r="G53" t="n">
+        <v>462.3317150382052</v>
+      </c>
+      <c r="H53" t="n">
+        <v>162.8074891445043</v>
+      </c>
+      <c r="I53" t="n">
+        <v>196.6509498303346</v>
+      </c>
+      <c r="J53" t="n">
+        <v>442.6652452296829</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>HBfeed/import_max</t>
+          <t>CO2_DAC/import_max</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1278,13 +2150,31 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
+        <v>266.3614700211012</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>HBfeed/export_max</t>
+          <t>CO2_DAC/export_max</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1294,13 +2184,31 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>MPW/import_max</t>
+          <t>CO2captured/import_max</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1310,13 +2218,31 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>MPW/export_max</t>
+          <t>CO2captured/export_max</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1326,13 +2252,31 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>PE_olefin/import_max</t>
+          <t>HBfeed/import_max</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1342,29 +2286,65 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>PE_olefin/export_max</t>
+          <t>HBfeed/export_max</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>122.1461187214612</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>128.143775662133</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>132.1729425278707</v>
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>ammonia/import_max</t>
+          <t>MPW/import_max</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1374,61 +2354,133 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>ammonia/export_max</t>
+          <t>MPW/export_max</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>135.1598173516806</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>137.3840028693246</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>137.5222026135731</v>
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>biomass/import_max</t>
+          <t>PE_olefin/import_max</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>466.3656582471337</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>285.1405804510192</v>
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>biomass/export_max</t>
+          <t>PE_olefin/export_max</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>122.1461187214612</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>127.1106571159974</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>128.0211414631145</v>
+      </c>
+      <c r="E63" t="n">
+        <v>123.8804683087842</v>
+      </c>
+      <c r="F63" t="n">
+        <v>126.9660763256683</v>
+      </c>
+      <c r="G63" t="n">
+        <v>126.9660763256356</v>
+      </c>
+      <c r="H63" t="n">
+        <v>123.9024346221356</v>
+      </c>
+      <c r="I63" t="n">
+        <v>127.0424123309595</v>
+      </c>
+      <c r="J63" t="n">
+        <v>127.0424123309541</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>crackergas/import_max</t>
+          <t>ammonia/import_max</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1438,45 +2490,99 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>crackergas/export_max</t>
+          <t>ammonia/export_max</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>135.1598173516387</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>136.5416640000007</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>140.7223740019584</v>
+      </c>
+      <c r="E65" t="n">
+        <v>135.1598173516658</v>
+      </c>
+      <c r="F65" t="n">
+        <v>150.236499406248</v>
+      </c>
+      <c r="G65" t="n">
+        <v>150.236499406248</v>
+      </c>
+      <c r="H65" t="n">
+        <v>135.1598173515993</v>
+      </c>
+      <c r="I65" t="n">
+        <v>144.8767632786303</v>
+      </c>
+      <c r="J65" t="n">
+        <v>135.2245212816278</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>electricity/import_max</t>
+          <t>biomass/import_max</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>384.5435050830094</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>3250.000000001652</v>
+        <v>553.0795362340629</v>
       </c>
       <c r="D66" t="n">
-        <v>4013.111918183245</v>
+        <v>553.0795362339358</v>
+      </c>
+      <c r="E66" t="n">
+        <v>341.9117647060357</v>
+      </c>
+      <c r="F66" t="n">
+        <v>318.6482510184088</v>
+      </c>
+      <c r="G66" t="n">
+        <v>650.5638971102892</v>
+      </c>
+      <c r="H66" t="n">
+        <v>341.9117647058821</v>
+      </c>
+      <c r="I66" t="n">
+        <v>319.417219902185</v>
+      </c>
+      <c r="J66" t="n">
+        <v>651.4526424920077</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>electricity/export_max</t>
+          <t>biomass/export_max</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1486,29 +2592,65 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>ethanol/import_max</t>
+          <t>crackergas/import_max</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>331.4209723160709</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>ethanol/export_max</t>
+          <t>crackergas/export_max</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1518,61 +2660,133 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>ethylene/import_max</t>
+          <t>electricity/import_max</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>384.4997681415442</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>3250</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>4600</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1720.621992665878</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3250</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3090.142010761912</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1724.201759502443</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3250.000000000007</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3120.475552677004</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>ethylene/export_max</t>
+          <t>electricity/export_max</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>74.0550968896528</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>79.97405485545342</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>82.86852085522335</v>
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>feedgas/import_max</t>
+          <t>ethanol/import_max</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>331.3074175388389</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>feedgas/export_max</t>
+          <t>ethanol/export_max</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1582,13 +2796,31 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>hydrogen/import_max</t>
+          <t>ethylene/import_max</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1598,45 +2830,99 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>hydrogen/export_max</t>
+          <t>ethylene/export_max</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>73.98787246154058</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>79.66592705318685</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>80.71197007483882</v>
+      </c>
+      <c r="E75" t="n">
+        <v>84.2351262819214</v>
+      </c>
+      <c r="F75" t="n">
+        <v>85.93796472421548</v>
+      </c>
+      <c r="G75" t="n">
+        <v>159.3615116267022</v>
+      </c>
+      <c r="H75" t="n">
+        <v>84.49236703092464</v>
+      </c>
+      <c r="I75" t="n">
+        <v>86.5137482663111</v>
+      </c>
+      <c r="J75" t="n">
+        <v>160.8759328651835</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>methane/import_max</t>
+          <t>feedgas/import_max</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1380.011959082885</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1239.522713993299</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>596.9547455532237</v>
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>methane/export_max</t>
+          <t>feedgas/export_max</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1646,29 +2932,65 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>methane_bio/import_max</t>
+          <t>hydrogen/import_max</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1239.522713993349</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1284.020471131424</v>
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>methane_bio/export_max</t>
+          <t>hydrogen/export_max</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1678,29 +3000,65 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>methanol/import_max</t>
+          <t>methane/import_max</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1379.973325772806</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1283.981837821397</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>322.7818378213971</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4912.360355478194</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2322.189896781737</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1362.96236089622</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4918.277294800453</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2291.880643152502</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1748.155227773275</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>methanol/export_max</t>
+          <t>methane/export_max</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1710,13 +3068,31 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>naphtha/import_max</t>
+          <t>methane_bio/import_max</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1726,13 +3102,31 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>naphtha/export_max</t>
+          <t>methane_bio/export_max</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1742,13 +3136,31 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>naphtha_bio/import_max</t>
+          <t>methanol/import_max</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1758,13 +3170,31 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>naphtha_bio/export_max</t>
+          <t>methanol/export_max</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1774,13 +3204,31 @@
         <v>0</v>
       </c>
       <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>nitrogen/import_max</t>
+          <t>naphtha/import_max</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1790,29 +3238,65 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>nitrogen/export_max</t>
+          <t>naphtha/export_max</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5575481087158574</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6490229610145826</v>
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>olefins/import_max</t>
+          <t>naphtha_bio/import_max</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1822,13 +3306,31 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>olefins/export_max</t>
+          <t>naphtha_bio/export_max</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1838,13 +3340,31 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>propane/import_max</t>
+          <t>nitrogen/import_max</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1854,29 +3374,65 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>propane/export_max</t>
+          <t>nitrogen/export_max</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2.228775356477896e-11</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
+        <v>11.40819763542083</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>9.833836407775635</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>10.72074512413143</v>
+      </c>
+      <c r="J91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>propylene/import_max</t>
+          <t>olefins/import_max</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1886,13 +3442,31 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>propylene/export_max</t>
+          <t>olefins/export_max</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1902,13 +3476,31 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>steam/import_max</t>
+          <t>propane/import_max</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1918,13 +3510,31 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>steam/export_max</t>
+          <t>propane/export_max</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1934,13 +3544,31 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>syngas/import_max</t>
+          <t>propylene/import_max</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1950,13 +3578,31 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>syngas/export_max</t>
+          <t>propylene/export_max</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1966,13 +3612,31 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>syngas_r/import_max</t>
+          <t>steam/import_max</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1982,13 +3646,31 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>syngas_r/export_max</t>
+          <t>steam/export_max</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1998,218 +3680,708 @@
         <v>0</v>
       </c>
       <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_El_existing</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>syngas/import_max</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
       <c r="C100" t="n">
-        <v>299.9947812534424</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>299.9947812534424</v>
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>size_Boiler_Industrial_NG_existing</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
+          <t>syngas/export_max</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
       <c r="C101" t="n">
-        <v>322.8204711314243</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>322.8204711314243</v>
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>size_CO2electrolysis</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
+          <t>syngas_r/import_max</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
       <c r="C102" t="n">
-        <v>263.8906231830128</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>43.29551608299028</v>
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>size_DirectMeOHsynthesis</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
+          <t>syngas_r/export_max</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>size_EDH_existing</t>
+          <t>size_Boiler_El_existing</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>331.420972315885</v>
+        <v>299.9588795916105</v>
       </c>
       <c r="D104" t="n">
-        <v>331.420972315885</v>
+        <v>343.4199110772941</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>563.3634687205019</v>
+      </c>
+      <c r="G104" t="n">
+        <v>563.3634687205019</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>563.9610728014717</v>
+      </c>
+      <c r="J104" t="n">
+        <v>563.9610728014717</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>size_PE_mixer_existing</t>
+          <t>size_Boiler_Industrial_NG_existing</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>122.1461187214612</v>
+        <v>322.7818378213971</v>
       </c>
       <c r="D105" t="n">
-        <v>128.143775662133</v>
+        <v>322.7818378213971</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>447.7629652852092</v>
+      </c>
+      <c r="G105" t="n">
+        <v>447.7629652852092</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>448.1488096592267</v>
+      </c>
+      <c r="J105" t="n">
+        <v>448.1488096592267</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>size_feedgas_mixer_existing</t>
+          <t>size_CO2electrolysis</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>1380.011959082729</v>
+        <v>246.0408255462663</v>
       </c>
       <c r="D106" t="n">
-        <v>1380.011959082729</v>
+        <v>3.658615050037</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>183.4684231070427</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3.575192176585623</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>184.2312491948843</v>
+      </c>
+      <c r="J106" t="n">
+        <v>5.275906208657349</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>size_ASU_existing</t>
+          <t>size_DirectMeOHsynthesis</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>1.104380955707616</v>
+      </c>
       <c r="D107" t="n">
-        <v>0.1742337839532803</v>
+        <v>0</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>size_Biomass2methanol_existing</t>
+          <t>size_EDH_existing</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>331.3074175388309</v>
+      </c>
       <c r="D108" t="n">
-        <v>466.3656582469201</v>
-      </c>
+        <v>331.3074175388309</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>size_Biomass2methanol_existing_CC</t>
+          <t>size_PE_mixer_existing</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="n">
+        <v>122.1461187214612</v>
+      </c>
       <c r="D109" t="n">
-        <v>0.8999999999991888</v>
+        <v>127.1106571159604</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>123.8804683087842</v>
+      </c>
+      <c r="G109" t="n">
+        <v>126.9660763256356</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>123.9024346221356</v>
+      </c>
+      <c r="J109" t="n">
+        <v>127.0424123309541</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>size_CO2_mixer_existing</t>
+          <t>size_feedgas_mixer_existing</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>1379.973325772722</v>
+      </c>
       <c r="D110" t="n">
-        <v>64.4004</v>
+        <v>1379.973325772722</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>4912.360355477428</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4912.360355477428</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>4918.277294800439</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4918.277294800439</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>size_CO2electrolysis_existing</t>
+          <t>size_AEC_existing</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>263.8906231830128</v>
-      </c>
+        <v>2.338160549080429</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>size_HBfeed_mixer_existing</t>
+          <t>size_Biomass2methanol_existing</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>5.013921840915996</v>
+        <v>553.0795362339358</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>341.9117647058839</v>
+      </c>
+      <c r="G112" t="n">
+        <v>341.9117647058839</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>341.911764705882</v>
+      </c>
+      <c r="J112" t="n">
+        <v>341.911764705882</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>size_MTO_existing</t>
+          <t>size_Biomass2methanol_existing_CC</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>150.1697419555155</v>
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.9000000000000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_CO2_existing</t>
+          <t>size_CO2_mixer_existing</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>5300.016773852787</v>
+        <v>156.7980485223208</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>90.33677916371849</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>90.55478184226945</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>size_Storage_H2_existing</t>
+          <t>size_CO2electrolysis_existing</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>3.063392136816242e-10</v>
+        <v>246.0408255462663</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>183.4684231070427</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>184.2312491948843</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>size_DirectMeOHsynthesis_existing</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>1.104380955707616</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>size_MTO_existing</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>178.8414853362528</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>634.4987639959961</v>
+      </c>
+      <c r="G117" t="n">
+        <v>634.4987639959961</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>635.3500050398176</v>
+      </c>
+      <c r="J117" t="n">
+        <v>635.3500050398176</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_CO2_existing</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>15.63745999133647</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_H2_existing</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="n">
+        <v>82.91189010630154</v>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3.695318241823908e-10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>size_ElectricSMR_m_existing</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>3407.405902240549</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3407.405902240549</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>3412.936997189905</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3412.936997189905</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>size_MeOHsynthesis_existing</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="n">
+        <v>637.1849037189876</v>
+      </c>
+      <c r="G121" t="n">
+        <v>637.1849037189876</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>638.2192184745122</v>
+      </c>
+      <c r="J121" t="n">
+        <v>638.2192184745122</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>size_Storage_Battery_existing</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>63.12236862348283</v>
+      </c>
+      <c r="G122" t="n">
+        <v>63.12236862348283</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>64.43734791714601</v>
+      </c>
+      <c r="J122" t="n">
+        <v>64.43734791714601</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>size_syngas_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="n">
+        <v>637.1849037189922</v>
+      </c>
+      <c r="G123" t="n">
+        <v>637.1849037189922</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>638.2192184745122</v>
+      </c>
+      <c r="J123" t="n">
+        <v>638.2192184745122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>size_ASU_existing</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>31.07570449028047</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>29.96706859483574</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>size_HBfeed_mixer_existing</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>894.2648774181429</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>862.3616861823233</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>size_WGS_m_existing</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>179.3755492104561</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>172.948306977077</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
